--- a/biology/Zoologie/Cyrestis_whitmei/Cyrestis_whitmei.xlsx
+++ b/biology/Zoologie/Cyrestis_whitmei/Cyrestis_whitmei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cyrestis whitmei est un lépidoptère de la famille des Nymphalidae, de la sous-famille des  Cyrestinae et du genre Cyrestis.
 </t>
@@ -511,12 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cyrestis whitmei a été nommé par Butler en 1852[1].
-Pour certains c'est Cyrestis telamon whitmei une sous-espèce de Cyrestis telamon pour d'autres Cyrestis achates whitmei une sous-espèce de Cyrestis achates[2].
-Noms vernaculaire
-Il est nommé Map en anglais, Mappemonde en français.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cyrestis whitmei a été nommé par Butler en 1852.
+Pour certains c'est Cyrestis telamon whitmei une sous-espèce de Cyrestis telamon pour d'autres Cyrestis achates whitmei une sous-espèce de Cyrestis achates.
 </t>
         </is>
       </c>
@@ -542,13 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">C'est un grand papillon blanc à ornementation complexe de fines lignes marron coupant les veines finement soulignées de marron. Les ailes antérieures ont une bordure et l'apex marron, deux bandes basales bleues  et deux ocelles submarginaux cernés de bleu, couleur bleue qui se prolonge par une ligne bleue aux postérieures. La partie anale est orange et la petite queue est bleue.
-Le revers présente la même ornementation.
+          <t>Noms vernaculaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est nommé Map en anglais, Mappemonde en français.
 </t>
         </is>
       </c>
@@ -574,13 +591,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes de sa chenille sont des lianes, des Apocynaceae. ou des Moraceae (Trophis scandens  Hook. &amp; Arn.)
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un grand papillon blanc à ornementation complexe de fines lignes marron coupant les veines finement soulignées de marron. Les ailes antérieures ont une bordure et l'apex marron, deux bandes basales bleues  et deux ocelles submarginaux cernés de bleu, couleur bleue qui se prolonge par une ligne bleue aux postérieures. La partie anale est orange et la petite queue est bleue.
+Le revers présente la même ornementation.
 </t>
         </is>
       </c>
@@ -606,16 +625,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Écologie et distribution</t>
+          <t>Biologie</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cyrestis whitmei est présent en Nouvelle-Calédonie, à Grande Terre et aux Iles Loyauté[1].
-Biotope
-Il réside en forêt, dans les lieux où poussent les lianes plantes hôtes de sa chenille[1]. Les mâles pratiquent le hill-toping et sont particulièrement agressifs entre eux et avec les autres espèces.
-Protection
-Pas de statut de protection particulier.
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des lianes, des Apocynaceae. ou des Moraceae (Trophis scandens  Hook. &amp; Arn.)
 </t>
         </is>
       </c>
@@ -641,12 +662,121 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cyrestis whitmei est présent en Nouvelle-Calédonie, à Grande Terre et aux Iles Loyauté.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cyrestis_whitmei</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cyrestis_whitmei</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside en forêt, dans les lieux où poussent les lianes plantes hôtes de sa chenille. Les mâles pratiquent le hill-toping et sont particulièrement agressifs entre eux et avec les autres espèces.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cyrestis_whitmei</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cyrestis_whitmei</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cyrestis_whitmei</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cyrestis_whitmei</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Philatélie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un timbre à effigie de Cyrestis telamon whitmei a été émis en 1991 en Nouvelle-Calédonie[3].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un timbre à effigie de Cyrestis telamon whitmei a été émis en 1991 en Nouvelle-Calédonie.
 </t>
         </is>
       </c>
